--- a/Pin Layout.xlsx
+++ b/Pin Layout.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>Pin</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Wit</t>
+  </si>
+  <si>
+    <t>????</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,13 +521,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -552,7 +555,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -563,10 +566,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -608,16 +611,22 @@
         <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
